--- a/Analyses/CAMspiracy/t1_segmentation/outputs/questionnaire_raw.xlsx
+++ b/Analyses/CAMspiracy/t1_segmentation/outputs/questionnaire_raw.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="617">
   <si>
     <t>ID</t>
   </si>
@@ -239,6 +239,9 @@
     <t>GCB-02et</t>
   </si>
   <si>
+    <t>politicalParty</t>
+  </si>
+  <si>
     <t>total_min</t>
   </si>
   <si>
@@ -1815,6 +1818,9 @@
   </si>
   <si>
     <t>America/Denver</t>
+  </si>
+  <si>
+    <t>Democrat</t>
   </si>
   <si>
     <t>Male</t>
@@ -2155,16 +2161,19 @@
       <c r="CE1" t="s">
         <v>81</v>
       </c>
+      <c r="CF1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -2173,34 +2182,34 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P2" t="n">
         <v>300.0</v>
@@ -2385,37 +2394,40 @@
       <c r="BX2" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>11.735600466671434</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>73.0</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>601</v>
       </c>
       <c r="CB2" t="s">
         <v>603</v>
       </c>
       <c r="CC2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD2" t="s">
         <v>610</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF2" t="n">
         <v>11.966666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
@@ -2424,34 +2436,34 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P3" t="n">
         <v>300.0</v>
@@ -2636,37 +2648,40 @@
       <c r="BX3" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ3" t="n">
         <v>15.616909916663088</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>57.0</v>
       </c>
-      <c r="CA3" t="s">
-        <v>602</v>
-      </c>
       <c r="CB3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD3" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE3" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF3" t="n">
         <v>15.983333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="n">
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
@@ -2675,34 +2690,34 @@
         <v>1.0</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P4" t="n">
         <v>300.0</v>
@@ -2885,37 +2900,40 @@
       <c r="BX4" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>12.862633333333333</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>55.0</v>
       </c>
-      <c r="CA4" t="s">
-        <v>602</v>
-      </c>
       <c r="CB4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD4" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE4" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF4" t="n">
         <v>13.033333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" t="n">
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
@@ -2924,34 +2942,34 @@
         <v>1.0</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P5" t="n">
         <v>300.0</v>
@@ -3128,37 +3146,40 @@
       <c r="BX5" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>8.696189916667958</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CA5" t="n">
         <v>30.0</v>
       </c>
-      <c r="CA5" t="s">
-        <v>601</v>
-      </c>
       <c r="CB5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CC5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="CD5" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE5" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF5" t="n">
         <v>8.833333333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
@@ -3167,34 +3188,34 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P6" t="n">
         <v>300.0</v>
@@ -3379,37 +3400,40 @@
       <c r="BX6" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>6.332418766666445</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CA6" t="n">
         <v>53.0</v>
       </c>
-      <c r="CA6" t="s">
-        <v>602</v>
-      </c>
       <c r="CB6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD6" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE6" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF6" t="n">
         <v>6.516666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" t="n">
         <v>1.0</v>
@@ -3418,34 +3442,34 @@
         <v>1.0</v>
       </c>
       <c r="F7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P7" t="n">
         <v>360.0</v>
@@ -3630,37 +3654,40 @@
       <c r="BX7" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>4.539168366656731</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7" t="n">
         <v>42.0</v>
       </c>
-      <c r="CA7" t="s">
-        <v>602</v>
-      </c>
       <c r="CB7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD7" t="s">
-        <v>607</v>
-      </c>
-      <c r="CE7" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>609</v>
+      </c>
+      <c r="CF7" t="n">
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" t="n">
         <v>1.0</v>
@@ -3669,34 +3696,34 @@
         <v>1.0</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P8" t="n">
         <v>420.0</v>
@@ -3879,37 +3906,40 @@
       <c r="BX8" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>7.913231333333334</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CA8" t="n">
         <v>62.0</v>
       </c>
-      <c r="CA8" t="s">
-        <v>602</v>
-      </c>
       <c r="CB8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD8" t="s">
         <v>610</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CE8" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF8" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D9" t="n">
         <v>1.0</v>
@@ -3918,34 +3948,34 @@
         <v>1.0</v>
       </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P9" t="n">
         <v>300.0</v>
@@ -4130,37 +4160,40 @@
       <c r="BX9" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>8.494964333333334</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CA9" t="n">
         <v>38.0</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>601</v>
       </c>
       <c r="CB9" t="s">
         <v>603</v>
       </c>
       <c r="CC9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD9" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE9" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF9" t="n">
         <v>27.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
@@ -4169,34 +4202,34 @@
         <v>1.0</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P10" t="n">
         <v>300.0</v>
@@ -4381,37 +4414,40 @@
       <c r="BX10" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ10" t="n">
         <v>6.469806633329161</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CA10" t="n">
         <v>27.0</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>601</v>
       </c>
       <c r="CB10" t="s">
         <v>603</v>
       </c>
       <c r="CC10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD10" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE10" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF10" t="n">
         <v>6.616666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
@@ -4420,34 +4456,34 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P11" t="n">
         <v>300.0</v>
@@ -4632,37 +4668,40 @@
       <c r="BX11" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="BY11" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ11" t="n">
         <v>9.553105433317835</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="CA11" t="n">
         <v>67.0</v>
       </c>
-      <c r="CA11" t="s">
-        <v>602</v>
-      </c>
       <c r="CB11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD11" t="s">
         <v>610</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CE11" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF11" t="n">
         <v>9.733333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" t="n">
         <v>11.0</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" t="n">
         <v>1.0</v>
@@ -4671,34 +4710,34 @@
         <v>1.0</v>
       </c>
       <c r="F12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P12" t="n">
         <v>360.0</v>
@@ -4881,37 +4920,40 @@
       <c r="BX12" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BY12" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ12" t="n">
         <v>12.769243149990466</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="CA12" t="n">
         <v>49.0</v>
       </c>
-      <c r="CA12" t="s">
-        <v>601</v>
-      </c>
       <c r="CB12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CC12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CD12" t="s">
         <v>611</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CE12" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF12" t="n">
         <v>12.983333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" t="n">
         <v>12.0</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" t="n">
         <v>1.0</v>
@@ -4920,34 +4962,34 @@
         <v>1.0</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P13" t="n">
         <v>300.0</v>
@@ -5132,37 +5174,40 @@
       <c r="BX13" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="BY13" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ13" t="n">
         <v>14.309315483333929</v>
       </c>
-      <c r="BZ13" t="n">
+      <c r="CA13" t="n">
         <v>53.0</v>
       </c>
-      <c r="CA13" t="s">
-        <v>602</v>
-      </c>
       <c r="CB13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC13" t="s">
-        <v>327</v>
+        <v>607</v>
       </c>
       <c r="CD13" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE13" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF13" t="n">
         <v>14.55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" t="n">
         <v>13.0</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D14" t="n">
         <v>1.0</v>
@@ -5171,34 +5216,34 @@
         <v>1.0</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P14" t="n">
         <v>300.0</v>
@@ -5383,37 +5428,40 @@
       <c r="BX14" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="BY14" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ14" t="n">
         <v>4.355258833325386</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="CA14" t="n">
         <v>42.0</v>
       </c>
-      <c r="CA14" t="s">
-        <v>602</v>
-      </c>
       <c r="CB14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC14" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD14" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE14" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF14" t="n">
         <v>4.483333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" t="n">
         <v>14.0</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" t="n">
         <v>1.0</v>
@@ -5422,34 +5470,34 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K15" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L15" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O15" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P15" t="n">
         <v>300.0</v>
@@ -5634,37 +5682,40 @@
       <c r="BX15" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="BY15" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ15" t="n">
         <v>8.189479433330156</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="CA15" t="n">
         <v>48.0</v>
       </c>
-      <c r="CA15" t="s">
-        <v>601</v>
-      </c>
       <c r="CB15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD15" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE15" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF15" t="n">
         <v>8.833333333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" t="n">
         <v>15.0</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D16" t="n">
         <v>1.0</v>
@@ -5673,34 +5724,34 @@
         <v>1.0</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K16" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M16" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N16" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O16" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P16" t="n">
         <v>300.0</v>
@@ -5877,37 +5928,40 @@
       <c r="BX16" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="BY16" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ16" t="n">
         <v>20.862638399999863</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="CA16" t="n">
         <v>51.0</v>
       </c>
-      <c r="CA16" t="s">
-        <v>602</v>
-      </c>
       <c r="CB16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC16" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD16" t="s">
         <v>610</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="CE16" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF16" t="n">
         <v>21.383333333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" t="n">
         <v>16.0</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D17" t="n">
         <v>1.0</v>
@@ -5916,34 +5970,34 @@
         <v>1.0</v>
       </c>
       <c r="F17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P17" t="n">
         <v>300.0</v>
@@ -6126,37 +6180,40 @@
       <c r="BX17" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY17" t="n">
+      <c r="BY17" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ17" t="n">
         <v>7.547883783335717</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="CA17" t="n">
         <v>78.0</v>
       </c>
-      <c r="CA17" t="s">
-        <v>602</v>
-      </c>
       <c r="CB17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD17" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE17" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF17" t="n">
         <v>7.883333333333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" t="n">
         <v>17.0</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D18" t="n">
         <v>1.0</v>
@@ -6165,34 +6222,34 @@
         <v>1.0</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P18" t="n">
         <v>360.0</v>
@@ -6375,37 +6432,40 @@
       <c r="BX18" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="BY18" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ18" t="n">
         <v>7.223452500001191</v>
       </c>
-      <c r="BZ18" t="n">
+      <c r="CA18" t="n">
         <v>50.0</v>
       </c>
-      <c r="CA18" t="s">
-        <v>601</v>
-      </c>
       <c r="CB18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CC18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="CD18" t="s">
-        <v>607</v>
-      </c>
-      <c r="CE18" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>609</v>
+      </c>
+      <c r="CF18" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="n">
         <v>18.0</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
@@ -6414,34 +6474,34 @@
         <v>1.0</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P19" t="n">
         <v>300.0</v>
@@ -6626,37 +6686,40 @@
       <c r="BX19" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY19" t="n">
+      <c r="BY19" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ19" t="n">
         <v>3.493266333333333</v>
       </c>
-      <c r="BZ19" t="n">
+      <c r="CA19" t="n">
         <v>46.0</v>
       </c>
-      <c r="CA19" t="s">
-        <v>601</v>
-      </c>
       <c r="CB19" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="CC19" t="s">
         <v>608</v>
       </c>
       <c r="CD19" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE19" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF19" t="n">
         <v>3.966666666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" t="n">
         <v>19.0</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
@@ -6665,34 +6728,34 @@
         <v>1.0</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J20" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P20" t="n">
         <v>300.0</v>
@@ -6877,37 +6940,40 @@
       <c r="BX20" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="BY20" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ20" t="n">
         <v>8.434107316668058</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="CA20" t="n">
         <v>61.0</v>
       </c>
-      <c r="CA20" t="s">
-        <v>601</v>
-      </c>
       <c r="CB20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC20" t="s">
-        <v>327</v>
+        <v>607</v>
       </c>
       <c r="CD20" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE20" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF20" t="n">
         <v>9.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" t="n">
         <v>20.0</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>1.0</v>
@@ -6916,34 +6982,34 @@
         <v>1.0</v>
       </c>
       <c r="F21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P21" t="n">
         <v>420.0</v>
@@ -7124,37 +7190,40 @@
       <c r="BX21" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="BY21" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ21" t="n">
         <v>5.369412966676999</v>
       </c>
-      <c r="BZ21" t="n">
+      <c r="CA21" t="n">
         <v>59.0</v>
       </c>
-      <c r="CA21" t="s">
-        <v>602</v>
-      </c>
       <c r="CB21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC21" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD21" t="s">
         <v>610</v>
       </c>
-      <c r="CE21" t="n">
+      <c r="CE21" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF21" t="n">
         <v>5.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" t="n">
         <v>21.0</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D22" t="n">
         <v>1.0</v>
@@ -7163,34 +7232,34 @@
         <v>1.0</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L22" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P22" t="n">
         <v>300.0</v>
@@ -7371,37 +7440,40 @@
       <c r="BX22" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY22" t="n">
+      <c r="BY22" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ22" t="n">
         <v>3.474666666666667</v>
       </c>
-      <c r="BZ22" t="n">
+      <c r="CA22" t="n">
         <v>24.0</v>
       </c>
-      <c r="CA22" t="s">
-        <v>602</v>
-      </c>
       <c r="CB22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="CC22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="CD22" t="s">
         <v>611</v>
       </c>
-      <c r="CE22" t="n">
+      <c r="CE22" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF22" t="n">
         <v>3.5833333333333335</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" t="n">
         <v>22.0</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D23" t="n">
         <v>1.0</v>
@@ -7410,34 +7482,34 @@
         <v>1.0</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J23" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K23" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L23" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M23" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N23" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P23" t="n">
         <v>300.0</v>
@@ -7622,37 +7694,40 @@
       <c r="BX23" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY23" t="n">
+      <c r="BY23" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ23" t="n">
         <v>8.698217383338102</v>
       </c>
-      <c r="BZ23" t="n">
+      <c r="CA23" t="n">
         <v>38.0</v>
-      </c>
-      <c r="CA23" t="s">
-        <v>601</v>
       </c>
       <c r="CB23" t="s">
         <v>603</v>
       </c>
       <c r="CC23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD23" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE23" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF23" t="n">
         <v>8.866666666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" t="n">
         <v>23.0</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D24" t="n">
         <v>1.0</v>
@@ -7661,34 +7736,34 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K24" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M24" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N24" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O24" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P24" t="n">
         <v>360.0</v>
@@ -7871,37 +7946,40 @@
       <c r="BX24" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY24" t="n">
+      <c r="BY24" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ24" t="n">
         <v>14.018893449999675</v>
       </c>
-      <c r="BZ24" t="n">
+      <c r="CA24" t="n">
         <v>52.0</v>
       </c>
-      <c r="CA24" t="s">
-        <v>602</v>
-      </c>
       <c r="CB24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC24" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD24" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE24" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF24" t="n">
         <v>14.383333333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" t="n">
         <v>24.0</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
@@ -7910,34 +7988,34 @@
         <v>1.0</v>
       </c>
       <c r="F25" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" t="s">
+        <v>358</v>
+      </c>
+      <c r="H25" t="s">
         <v>298</v>
       </c>
-      <c r="G25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H25" t="s">
-        <v>297</v>
-      </c>
       <c r="I25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L25" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O25" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P25" t="n">
         <v>300.0</v>
@@ -8122,37 +8200,40 @@
       <c r="BX25" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY25" t="n">
+      <c r="BY25" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ25" t="n">
         <v>4.8842411666670635</v>
       </c>
-      <c r="BZ25" t="n">
+      <c r="CA25" t="n">
         <v>57.0</v>
-      </c>
-      <c r="CA25" t="s">
-        <v>601</v>
       </c>
       <c r="CB25" t="s">
         <v>603</v>
       </c>
       <c r="CC25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD25" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE25" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF25" t="n">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" t="n">
         <v>25.0</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D26" t="n">
         <v>1.0</v>
@@ -8161,34 +8242,34 @@
         <v>1.0</v>
       </c>
       <c r="F26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K26" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M26" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N26" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P26" t="n">
         <v>300.0</v>
@@ -8373,37 +8454,40 @@
       <c r="BX26" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY26" t="n">
+      <c r="BY26" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ26" t="n">
         <v>7.6860573333332525</v>
       </c>
-      <c r="BZ26" t="n">
+      <c r="CA26" t="n">
         <v>49.0</v>
       </c>
-      <c r="CA26" t="s">
-        <v>601</v>
-      </c>
       <c r="CB26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC26" t="s">
-        <v>327</v>
+        <v>607</v>
       </c>
       <c r="CD26" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE26" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF26" t="n">
         <v>8.183333333333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" t="n">
         <v>27.0</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D27" t="n">
         <v>1.0</v>
@@ -8412,34 +8496,34 @@
         <v>1.0</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K27" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L27" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M27" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N27" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O27" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P27" t="n">
         <v>300.0</v>
@@ -8624,37 +8708,40 @@
       <c r="BX27" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY27" t="n">
+      <c r="BY27" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ27" t="n">
         <v>3.0721686166660223</v>
       </c>
-      <c r="BZ27" t="n">
+      <c r="CA27" t="n">
         <v>53.0</v>
       </c>
-      <c r="CA27" t="s">
-        <v>601</v>
-      </c>
       <c r="CB27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC27" t="s">
-        <v>327</v>
+        <v>607</v>
       </c>
       <c r="CD27" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE27" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF27" t="n">
         <v>18.216666666666665</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" t="n">
         <v>28.0</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
@@ -8663,34 +8750,34 @@
         <v>1.0</v>
       </c>
       <c r="F28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O28" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P28" t="n">
         <v>300.0</v>
@@ -8875,37 +8962,40 @@
       <c r="BX28" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY28" t="n">
+      <c r="BY28" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ28" t="n">
         <v>6.3571262666666675</v>
       </c>
-      <c r="BZ28" t="n">
+      <c r="CA28" t="n">
         <v>61.0</v>
-      </c>
-      <c r="CA28" t="s">
-        <v>601</v>
       </c>
       <c r="CB28" t="s">
         <v>603</v>
       </c>
       <c r="CC28" t="s">
-        <v>327</v>
+        <v>605</v>
       </c>
       <c r="CD28" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE28" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF28" t="n">
         <v>6.55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" t="n">
         <v>29.0</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
@@ -8914,34 +9004,34 @@
         <v>1.0</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H29" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K29" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M29" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N29" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O29" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P29" t="n">
         <v>480.0</v>
@@ -9126,37 +9216,40 @@
       <c r="BX29" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY29" t="n">
+      <c r="BY29" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ29" t="n">
         <v>3.4122</v>
       </c>
-      <c r="BZ29" t="n">
+      <c r="CA29" t="n">
         <v>26.0</v>
       </c>
-      <c r="CA29" t="s">
-        <v>602</v>
-      </c>
       <c r="CB29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="CC29" t="s">
         <v>608</v>
       </c>
       <c r="CD29" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE29" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE29" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF29" t="n">
         <v>7.816666666666666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" t="n">
         <v>30.0</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
@@ -9165,34 +9258,34 @@
         <v>1.0</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K30" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M30" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N30" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O30" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
@@ -9373,37 +9466,40 @@
       <c r="BX30" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY30" t="n">
+      <c r="BY30" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ30" t="n">
         <v>8.544249500000001</v>
       </c>
-      <c r="BZ30" t="n">
+      <c r="CA30" t="n">
         <v>73.0</v>
-      </c>
-      <c r="CA30" t="s">
-        <v>601</v>
       </c>
       <c r="CB30" t="s">
         <v>603</v>
       </c>
       <c r="CC30" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD30" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE30" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF30" t="n">
         <v>10.266666666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31" t="n">
         <v>31.0</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
@@ -9412,34 +9508,34 @@
         <v>1.0</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I31" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J31" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K31" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M31" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N31" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O31" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P31" t="n">
         <v>480.0</v>
@@ -9624,37 +9720,40 @@
       <c r="BX31" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY31" t="n">
+      <c r="BY31" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ31" t="n">
         <v>10.42875749999985</v>
       </c>
-      <c r="BZ31" t="n">
+      <c r="CA31" t="n">
         <v>55.0</v>
       </c>
-      <c r="CA31" t="s">
-        <v>602</v>
-      </c>
       <c r="CB31" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC31" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD31" t="s">
         <v>610</v>
       </c>
-      <c r="CE31" t="n">
+      <c r="CE31" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF31" t="n">
         <v>10.683333333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" t="n">
         <v>32.0</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
@@ -9663,34 +9762,34 @@
         <v>1.0</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L32" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M32" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N32" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P32" t="n">
         <v>480.0</v>
@@ -9875,37 +9974,40 @@
       <c r="BX32" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY32" t="n">
+      <c r="BY32" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ32" t="n">
         <v>8.80679820000318</v>
       </c>
-      <c r="BZ32" t="n">
+      <c r="CA32" t="n">
         <v>45.0</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>601</v>
       </c>
       <c r="CB32" t="s">
         <v>603</v>
       </c>
       <c r="CC32" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD32" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE32" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF32" t="n">
         <v>12.083333333333334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" t="n">
         <v>34.0</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
@@ -9914,34 +10016,34 @@
         <v>1.0</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P33" t="n">
         <v>480.0</v>
@@ -10122,37 +10224,40 @@
       <c r="BX33" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY33" t="n">
+      <c r="BY33" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ33" t="n">
         <v>4.710136866665076</v>
       </c>
-      <c r="BZ33" t="n">
+      <c r="CA33" t="n">
         <v>29.0</v>
       </c>
-      <c r="CA33" t="s">
-        <v>602</v>
-      </c>
       <c r="CB33" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="CC33" t="s">
         <v>608</v>
       </c>
       <c r="CD33" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE33" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF33" t="n">
         <v>5.183333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" t="n">
         <v>35.0</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
@@ -10161,34 +10266,34 @@
         <v>1.0</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L34" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O34" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P34" t="n">
         <v>300.0</v>
@@ -10371,37 +10476,40 @@
       <c r="BX34" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY34" t="n">
+      <c r="BY34" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ34" t="n">
         <v>6.447151983332713</v>
       </c>
-      <c r="BZ34" t="n">
+      <c r="CA34" t="n">
         <v>37.0</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>601</v>
       </c>
       <c r="CB34" t="s">
         <v>603</v>
       </c>
       <c r="CC34" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD34" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE34" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF34" t="n">
         <v>6.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" t="n">
         <v>36.0</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
@@ -10410,34 +10518,34 @@
         <v>1.0</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I35" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J35" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K35" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L35" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M35" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N35" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O35" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P35" t="n">
         <v>480.0</v>
@@ -10622,37 +10730,40 @@
       <c r="BX35" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY35" t="n">
+      <c r="BY35" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ35" t="n">
         <v>3.872882650001986</v>
       </c>
-      <c r="BZ35" t="n">
+      <c r="CA35" t="n">
         <v>42.0</v>
       </c>
-      <c r="CA35" t="s">
-        <v>602</v>
-      </c>
       <c r="CB35" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC35" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD35" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE35" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF35" t="n">
         <v>4.083333333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36" t="n">
         <v>37.0</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D36" t="n">
         <v>1.0</v>
@@ -10661,34 +10772,34 @@
         <v>1.0</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I36" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L36" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M36" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N36" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P36" t="n">
         <v>360.0</v>
@@ -10873,37 +10984,40 @@
       <c r="BX36" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY36" t="n">
+      <c r="BY36" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ36" t="n">
         <v>12.374690950005961</v>
       </c>
-      <c r="BZ36" t="n">
+      <c r="CA36" t="n">
         <v>58.0</v>
-      </c>
-      <c r="CA36" t="s">
-        <v>601</v>
       </c>
       <c r="CB36" t="s">
         <v>603</v>
       </c>
       <c r="CC36" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD36" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE36" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF36" t="n">
         <v>12.533333333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" t="n">
         <v>38.0</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
@@ -10912,34 +11026,34 @@
         <v>1.0</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J37" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K37" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L37" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M37" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N37" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O37" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P37" t="n">
         <v>300.0</v>
@@ -11124,37 +11238,40 @@
       <c r="BX37" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY37" t="n">
+      <c r="BY37" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ37" t="n">
         <v>15.64190314999682</v>
       </c>
-      <c r="BZ37" t="n">
+      <c r="CA37" t="n">
         <v>33.0</v>
       </c>
-      <c r="CA37" t="s">
-        <v>601</v>
-      </c>
       <c r="CB37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CC37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="CD37" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE37" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF37" t="n">
         <v>15.816666666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" t="n">
         <v>39.0</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
@@ -11163,34 +11280,34 @@
         <v>1.0</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H38" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K38" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L38" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M38" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N38" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O38" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P38" t="n">
         <v>0.0</v>
@@ -11373,37 +11490,40 @@
       <c r="BX38" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY38" t="n">
+      <c r="BY38" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ38" t="n">
         <v>26.99791766666667</v>
       </c>
-      <c r="BZ38" t="n">
+      <c r="CA38" t="n">
         <v>49.0</v>
       </c>
-      <c r="CA38" t="s">
-        <v>602</v>
-      </c>
       <c r="CB38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="CC38" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="CD38" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE38" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF38" t="n">
         <v>28.233333333333334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39" t="n">
         <v>40.0</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
@@ -11412,34 +11532,34 @@
         <v>1.0</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I39" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L39" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M39" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N39" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O39" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P39" t="n">
         <v>300.0</v>
@@ -11624,37 +11744,40 @@
       <c r="BX39" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY39" t="n">
+      <c r="BY39" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ39" t="n">
         <v>11.139532916673819</v>
       </c>
-      <c r="BZ39" t="n">
+      <c r="CA39" t="n">
         <v>48.0</v>
-      </c>
-      <c r="CA39" t="s">
-        <v>601</v>
       </c>
       <c r="CB39" t="s">
         <v>603</v>
       </c>
       <c r="CC39" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD39" t="s">
         <v>610</v>
       </c>
-      <c r="CE39" t="n">
+      <c r="CE39" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF39" t="n">
         <v>11.333333333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40" t="n">
         <v>41.0</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
@@ -11663,34 +11786,34 @@
         <v>1.0</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I40" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K40" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L40" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O40" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P40" t="n">
         <v>300.0</v>
@@ -11875,37 +11998,40 @@
       <c r="BX40" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY40" t="n">
+      <c r="BY40" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ40" t="n">
         <v>6.96341730000914</v>
       </c>
-      <c r="BZ40" t="n">
+      <c r="CA40" t="n">
         <v>57.0</v>
-      </c>
-      <c r="CA40" t="s">
-        <v>601</v>
       </c>
       <c r="CB40" t="s">
         <v>603</v>
       </c>
       <c r="CC40" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD40" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE40" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE40" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF40" t="n">
         <v>7.166666666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" t="n">
         <v>42.0</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
@@ -11914,34 +12040,34 @@
         <v>1.0</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I41" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K41" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L41" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M41" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N41" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O41" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P41" t="n">
         <v>360.0</v>
@@ -12126,37 +12252,40 @@
       <c r="BX41" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY41" t="n">
+      <c r="BY41" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ41" t="n">
         <v>10.66605345003815</v>
       </c>
-      <c r="BZ41" t="n">
+      <c r="CA41" t="n">
         <v>40.0</v>
       </c>
-      <c r="CA41" t="s">
-        <v>602</v>
-      </c>
       <c r="CB41" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC41" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD41" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE41" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF41" t="n">
         <v>10.816666666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42" t="n">
         <v>43.0</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
@@ -12165,34 +12294,34 @@
         <v>1.0</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L42" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M42" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N42" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P42" t="n">
         <v>300.0</v>
@@ -12373,37 +12502,40 @@
       <c r="BX42" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY42" t="n">
+      <c r="BY42" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ42" t="n">
         <v>3.3569209499990067</v>
       </c>
-      <c r="BZ42" t="n">
+      <c r="CA42" t="n">
         <v>31.0</v>
       </c>
-      <c r="CA42" t="s">
-        <v>602</v>
-      </c>
       <c r="CB42" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC42" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD42" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE42" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE42" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF42" t="n">
         <v>4.266666666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" t="n">
         <v>44.0</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D43" t="n">
         <v>1.0</v>
@@ -12412,34 +12544,34 @@
         <v>1.0</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I43" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J43" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K43" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L43" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M43" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N43" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O43" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P43" t="n">
         <v>360.0</v>
@@ -12624,37 +12756,40 @@
       <c r="BX43" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY43" t="n">
+      <c r="BY43" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ43" t="n">
         <v>7.871433533333268</v>
       </c>
-      <c r="BZ43" t="n">
+      <c r="CA43" t="n">
         <v>53.0</v>
-      </c>
-      <c r="CA43" t="s">
-        <v>601</v>
       </c>
       <c r="CB43" t="s">
         <v>603</v>
       </c>
       <c r="CC43" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD43" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE43" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE43" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF43" t="n">
         <v>8.333333333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" t="n">
         <v>45.0</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
@@ -12663,34 +12798,34 @@
         <v>1.0</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I44" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L44" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M44" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N44" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O44" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P44" t="n">
         <v>0.0</v>
@@ -12875,37 +13010,40 @@
       <c r="BX44" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY44" t="n">
+      <c r="BY44" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ44" t="n">
         <v>21.684394000000005</v>
       </c>
-      <c r="BZ44" t="n">
+      <c r="CA44" t="n">
         <v>30.0</v>
       </c>
-      <c r="CA44" t="s">
-        <v>601</v>
-      </c>
       <c r="CB44" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC44" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="CD44" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE44" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF44" t="n">
         <v>22.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45" t="n">
         <v>46.0</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
@@ -12914,34 +13052,34 @@
         <v>1.0</v>
       </c>
       <c r="F45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H45" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K45" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L45" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M45" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N45" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O45" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P45" t="n">
         <v>300.0</v>
@@ -13126,37 +13264,40 @@
       <c r="BX45" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY45" t="n">
+      <c r="BY45" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ45" t="n">
         <v>7.1262836333313455</v>
       </c>
-      <c r="BZ45" t="n">
+      <c r="CA45" t="n">
         <v>61.0</v>
       </c>
-      <c r="CA45" t="s">
-        <v>602</v>
-      </c>
       <c r="CB45" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC45" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD45" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE45" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE45" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF45" t="n">
         <v>7.266666666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46" t="n">
         <v>47.0</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
@@ -13165,34 +13306,34 @@
         <v>1.0</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H46" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J46" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K46" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L46" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M46" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N46" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O46" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P46" t="n">
         <v>300.0</v>
@@ -13377,37 +13518,40 @@
       <c r="BX46" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY46" t="n">
+      <c r="BY46" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ46" t="n">
         <v>7.503669816666742</v>
       </c>
-      <c r="BZ46" t="n">
+      <c r="CA46" t="n">
         <v>27.0</v>
-      </c>
-      <c r="CA46" t="s">
-        <v>601</v>
       </c>
       <c r="CB46" t="s">
         <v>603</v>
       </c>
       <c r="CC46" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD46" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE46" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE46" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF46" t="n">
         <v>7.666666666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B47" t="n">
         <v>48.0</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
@@ -13416,34 +13560,34 @@
         <v>1.0</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G47" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K47" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L47" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M47" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N47" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O47" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P47" t="n">
         <v>300.0</v>
@@ -13622,37 +13766,40 @@
       <c r="BX47" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY47" t="n">
+      <c r="BY47" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ47" t="n">
         <v>5.111576016667213</v>
       </c>
-      <c r="BZ47" t="n">
+      <c r="CA47" t="n">
         <v>28.0</v>
-      </c>
-      <c r="CA47" t="s">
-        <v>601</v>
       </c>
       <c r="CB47" t="s">
         <v>603</v>
       </c>
       <c r="CC47" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD47" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE47" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF47" t="n">
         <v>5.416666666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" t="n">
         <v>49.0</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D48" t="n">
         <v>1.0</v>
@@ -13661,34 +13808,34 @@
         <v>1.0</v>
       </c>
       <c r="F48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H48" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J48" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K48" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L48" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M48" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N48" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O48" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P48" t="n">
         <v>360.0</v>
@@ -13873,37 +14020,40 @@
       <c r="BX48" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY48" t="n">
+      <c r="BY48" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ48" t="n">
         <v>21.552193333333335</v>
       </c>
-      <c r="BZ48" t="n">
+      <c r="CA48" t="n">
         <v>29.0</v>
       </c>
-      <c r="CA48" t="s">
-        <v>601</v>
-      </c>
       <c r="CB48" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC48" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="CD48" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE48" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE48" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF48" t="n">
         <v>22.033333333333335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B49" t="n">
         <v>50.0</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
@@ -13912,34 +14062,34 @@
         <v>1.0</v>
       </c>
       <c r="F49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L49" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M49" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N49" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O49" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P49" t="n">
         <v>300.0</v>
@@ -14122,37 +14272,40 @@
       <c r="BX49" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY49" t="n">
+      <c r="BY49" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ49" t="n">
         <v>5.0401504333311475</v>
       </c>
-      <c r="BZ49" t="n">
+      <c r="CA49" t="n">
         <v>31.0</v>
       </c>
-      <c r="CA49" t="s">
-        <v>602</v>
-      </c>
       <c r="CB49" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC49" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD49" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE49" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF49" t="n">
         <v>5.183333333333334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" t="n">
         <v>51.0</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D50" t="n">
         <v>1.0</v>
@@ -14161,34 +14314,34 @@
         <v>1.0</v>
       </c>
       <c r="F50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H50" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J50" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L50" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M50" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N50" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O50" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P50" t="n">
         <v>360.0</v>
@@ -14373,37 +14526,40 @@
       <c r="BX50" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY50" t="n">
+      <c r="BY50" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ50" t="n">
         <v>5.722923149987285</v>
       </c>
-      <c r="BZ50" t="n">
+      <c r="CA50" t="n">
         <v>37.0</v>
       </c>
-      <c r="CA50" t="s">
-        <v>602</v>
-      </c>
       <c r="CB50" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC50" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD50" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE50" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE50" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF50" t="n">
         <v>5.883333333333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B51" t="n">
         <v>52.0</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D51" t="n">
         <v>1.0</v>
@@ -14412,34 +14568,34 @@
         <v>1.0</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J51" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K51" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L51" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O51" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P51" t="n">
         <v>480.0</v>
@@ -14624,37 +14780,40 @@
       <c r="BX51" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY51" t="n">
+      <c r="BY51" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ51" t="n">
         <v>4.974069233332885</v>
       </c>
-      <c r="BZ51" t="n">
+      <c r="CA51" t="n">
         <v>43.0</v>
-      </c>
-      <c r="CA51" t="s">
-        <v>601</v>
       </c>
       <c r="CB51" t="s">
         <v>603</v>
       </c>
       <c r="CC51" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD51" t="s">
-        <v>607</v>
-      </c>
-      <c r="CE51" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>609</v>
+      </c>
+      <c r="CF51" t="n">
         <v>11.55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B52" t="n">
         <v>53.0</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D52" t="n">
         <v>1.0</v>
@@ -14663,34 +14822,34 @@
         <v>1.0</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I52" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J52" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L52" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M52" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N52" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O52" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P52" t="n">
         <v>300.0</v>
@@ -14875,37 +15034,40 @@
       <c r="BX52" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY52" t="n">
+      <c r="BY52" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ52" t="n">
         <v>6.871210833331347</v>
       </c>
-      <c r="BZ52" t="n">
+      <c r="CA52" t="n">
         <v>61.0</v>
-      </c>
-      <c r="CA52" t="s">
-        <v>601</v>
       </c>
       <c r="CB52" t="s">
         <v>603</v>
       </c>
       <c r="CC52" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD52" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE52" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE52" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF52" t="n">
         <v>7.05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B53" t="n">
         <v>54.0</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
@@ -14914,34 +15076,34 @@
         <v>1.0</v>
       </c>
       <c r="F53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H53" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J53" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K53" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L53" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M53" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N53" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O53" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P53" t="n">
         <v>300.0</v>
@@ -15126,37 +15288,40 @@
       <c r="BX53" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY53" t="n">
+      <c r="BY53" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ53" t="n">
         <v>6.6170888999963235</v>
       </c>
-      <c r="BZ53" t="n">
+      <c r="CA53" t="n">
         <v>57.0</v>
       </c>
-      <c r="CA53" t="s">
-        <v>602</v>
-      </c>
       <c r="CB53" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC53" t="s">
-        <v>327</v>
+        <v>605</v>
       </c>
       <c r="CD53" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE53" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE53" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF53" t="n">
         <v>6.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B54" t="n">
         <v>55.0</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
@@ -15165,34 +15330,34 @@
         <v>1.0</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H54" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I54" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J54" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K54" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L54" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M54" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N54" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O54" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P54" t="n">
         <v>300.0</v>
@@ -15377,37 +15542,40 @@
       <c r="BX54" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY54" t="n">
+      <c r="BY54" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ54" t="n">
         <v>7.167046699988078</v>
       </c>
-      <c r="BZ54" t="n">
+      <c r="CA54" t="n">
         <v>66.0</v>
-      </c>
-      <c r="CA54" t="s">
-        <v>601</v>
       </c>
       <c r="CB54" t="s">
         <v>603</v>
       </c>
       <c r="CC54" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD54" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE54" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE54" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF54" t="n">
         <v>7.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B55" t="n">
         <v>56.0</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D55" t="n">
         <v>1.0</v>
@@ -15416,34 +15584,34 @@
         <v>1.0</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J55" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K55" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L55" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M55" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N55" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O55" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P55" t="n">
         <v>360.0</v>
@@ -15628,37 +15796,40 @@
       <c r="BX55" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY55" t="n">
+      <c r="BY55" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ55" t="n">
         <v>4.47425</v>
       </c>
-      <c r="BZ55" t="n">
+      <c r="CA55" t="n">
         <v>32.0</v>
-      </c>
-      <c r="CA55" t="s">
-        <v>601</v>
       </c>
       <c r="CB55" t="s">
         <v>603</v>
       </c>
       <c r="CC55" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD55" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE55" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE55" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF55" t="n">
         <v>4.65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" t="n">
         <v>57.0</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
@@ -15667,34 +15838,34 @@
         <v>1.0</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I56" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K56" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L56" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M56" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N56" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O56" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P56" t="n">
         <v>480.0</v>
@@ -15879,37 +16050,40 @@
       <c r="BX56" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY56" t="n">
+      <c r="BY56" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ56" t="n">
         <v>4.90272128333244</v>
       </c>
-      <c r="BZ56" t="n">
+      <c r="CA56" t="n">
         <v>29.0</v>
       </c>
-      <c r="CA56" t="s">
-        <v>602</v>
-      </c>
       <c r="CB56" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="CC56" t="s">
         <v>608</v>
       </c>
       <c r="CD56" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE56" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE56" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF56" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" t="n">
         <v>58.0</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D57" t="n">
         <v>1.0</v>
@@ -15918,34 +16092,34 @@
         <v>1.0</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K57" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L57" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M57" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N57" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O57" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P57" t="n">
         <v>300.0</v>
@@ -16130,37 +16304,40 @@
       <c r="BX57" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY57" t="n">
+      <c r="BY57" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ57" t="n">
         <v>7.513420316666673</v>
       </c>
-      <c r="BZ57" t="n">
+      <c r="CA57" t="n">
         <v>55.0</v>
-      </c>
-      <c r="CA57" t="s">
-        <v>601</v>
       </c>
       <c r="CB57" t="s">
         <v>603</v>
       </c>
       <c r="CC57" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD57" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE57" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE57" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF57" t="n">
         <v>7.733333333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B58" t="n">
         <v>59.0</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
@@ -16169,34 +16346,34 @@
         <v>1.0</v>
       </c>
       <c r="F58" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I58" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K58" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L58" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M58" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N58" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O58" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P58" t="n">
         <v>300.0</v>
@@ -16379,37 +16556,40 @@
       <c r="BX58" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY58" t="n">
+      <c r="BY58" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ58" t="n">
         <v>6.745576666667038</v>
       </c>
-      <c r="BZ58" t="n">
+      <c r="CA58" t="n">
         <v>35.0</v>
       </c>
-      <c r="CA58" t="s">
-        <v>602</v>
-      </c>
       <c r="CB58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC58" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD58" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE58" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE58" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF58" t="n">
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B59" t="n">
         <v>60.0</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
@@ -16418,34 +16598,34 @@
         <v>1.0</v>
       </c>
       <c r="F59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I59" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J59" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K59" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L59" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M59" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N59" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O59" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P59" t="n">
         <v>300.0</v>
@@ -16630,37 +16810,40 @@
       <c r="BX59" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY59" t="n">
+      <c r="BY59" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ59" t="n">
         <v>4.240861983336512</v>
       </c>
-      <c r="BZ59" t="n">
+      <c r="CA59" t="n">
         <v>24.0</v>
       </c>
-      <c r="CA59" t="s">
-        <v>602</v>
-      </c>
       <c r="CB59" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC59" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD59" t="s">
         <v>611</v>
       </c>
-      <c r="CE59" t="n">
+      <c r="CE59" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF59" t="n">
         <v>4.416666666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B60" t="n">
         <v>61.0</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
@@ -16669,34 +16852,34 @@
         <v>1.0</v>
       </c>
       <c r="F60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I60" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K60" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L60" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M60" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N60" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O60" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P60" t="n">
         <v>300.0</v>
@@ -16881,37 +17064,40 @@
       <c r="BX60" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY60" t="n">
+      <c r="BY60" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ60" t="n">
         <v>7.498285400007946</v>
       </c>
-      <c r="BZ60" t="n">
+      <c r="CA60" t="n">
         <v>61.0</v>
       </c>
-      <c r="CA60" t="s">
-        <v>602</v>
-      </c>
       <c r="CB60" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC60" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD60" t="s">
         <v>610</v>
       </c>
-      <c r="CE60" t="n">
+      <c r="CE60" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF60" t="n">
         <v>7.966666666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B61" t="n">
         <v>62.0</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
@@ -16920,34 +17106,34 @@
         <v>1.0</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H61" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I61" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J61" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K61" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L61" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O61" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P61" t="n">
         <v>420.0</v>
@@ -17132,37 +17318,40 @@
       <c r="BX61" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY61" t="n">
+      <c r="BY61" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ61" t="n">
         <v>16.37211060000199</v>
       </c>
-      <c r="BZ61" t="n">
+      <c r="CA61" t="n">
         <v>56.0</v>
-      </c>
-      <c r="CA61" t="s">
-        <v>601</v>
       </c>
       <c r="CB61" t="s">
         <v>603</v>
       </c>
       <c r="CC61" t="s">
-        <v>327</v>
+        <v>605</v>
       </c>
       <c r="CD61" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE61" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE61" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF61" t="n">
         <v>16.55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B62" t="n">
         <v>63.0</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
@@ -17171,34 +17360,34 @@
         <v>1.0</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G62" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H62" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I62" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J62" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K62" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L62" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M62" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N62" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O62" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P62" t="n">
         <v>300.0</v>
@@ -17383,37 +17572,40 @@
       <c r="BX62" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY62" t="n">
+      <c r="BY62" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ62" t="n">
         <v>4.925914716655143</v>
       </c>
-      <c r="BZ62" t="n">
+      <c r="CA62" t="n">
         <v>38.0</v>
-      </c>
-      <c r="CA62" t="s">
-        <v>601</v>
       </c>
       <c r="CB62" t="s">
         <v>603</v>
       </c>
       <c r="CC62" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD62" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE62" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE62" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF62" t="n">
         <v>5.066666666666666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B63" t="n">
         <v>64.0</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D63" t="n">
         <v>1.0</v>
@@ -17422,34 +17614,34 @@
         <v>1.0</v>
       </c>
       <c r="F63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G63" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H63" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I63" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L63" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M63" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N63" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O63" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P63" t="n">
         <v>360.0</v>
@@ -17634,37 +17826,40 @@
       <c r="BX63" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY63" t="n">
+      <c r="BY63" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ63" t="n">
         <v>11.924816666666668</v>
       </c>
-      <c r="BZ63" t="n">
+      <c r="CA63" t="n">
         <v>27.0</v>
       </c>
-      <c r="CA63" t="s">
-        <v>601</v>
-      </c>
       <c r="CB63" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD63" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE63" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE63" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF63" t="n">
         <v>12.216666666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B64" t="n">
         <v>65.0</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
@@ -17673,34 +17868,34 @@
         <v>1.0</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K64" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L64" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M64" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N64" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O64" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P64" t="n">
         <v>300.0</v>
@@ -17881,37 +18076,40 @@
       <c r="BX64" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY64" t="n">
+      <c r="BY64" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ64" t="n">
         <v>6.08703295000636</v>
       </c>
-      <c r="BZ64" t="n">
+      <c r="CA64" t="n">
         <v>65.0</v>
       </c>
-      <c r="CA64" t="s">
-        <v>602</v>
-      </c>
       <c r="CB64" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC64" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD64" t="s">
         <v>610</v>
       </c>
-      <c r="CE64" t="n">
+      <c r="CE64" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF64" t="n">
         <v>6.216666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B65" t="n">
         <v>66.0</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
@@ -17920,34 +18118,34 @@
         <v>1.0</v>
       </c>
       <c r="F65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L65" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M65" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N65" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O65" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P65" t="n">
         <v>360.0</v>
@@ -18130,37 +18328,40 @@
       <c r="BX65" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY65" t="n">
+      <c r="BY65" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ65" t="n">
         <v>13.836487333333332</v>
       </c>
-      <c r="BZ65" t="n">
+      <c r="CA65" t="n">
         <v>46.0</v>
       </c>
-      <c r="CA65" t="s">
-        <v>602</v>
-      </c>
       <c r="CB65" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC65" t="s">
-        <v>327</v>
+        <v>605</v>
       </c>
       <c r="CD65" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE65" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE65" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF65" t="n">
         <v>14.066666666666666</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B66" t="n">
         <v>67.0</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
@@ -18169,34 +18370,34 @@
         <v>1.0</v>
       </c>
       <c r="F66" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G66" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I66" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J66" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K66" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L66" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M66" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N66" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O66" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P66" t="n">
         <v>360.0</v>
@@ -18381,37 +18582,40 @@
       <c r="BX66" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY66" t="n">
+      <c r="BY66" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ66" t="n">
         <v>12.138745283334625</v>
       </c>
-      <c r="BZ66" t="n">
+      <c r="CA66" t="n">
         <v>77.0</v>
       </c>
-      <c r="CA66" t="s">
-        <v>602</v>
-      </c>
       <c r="CB66" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC66" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD66" t="s">
         <v>610</v>
       </c>
-      <c r="CE66" t="n">
+      <c r="CE66" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF66" t="n">
         <v>12.283333333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B67" t="n">
         <v>68.0</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D67" t="n">
         <v>1.0</v>
@@ -18420,34 +18624,34 @@
         <v>1.0</v>
       </c>
       <c r="F67" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G67" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I67" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J67" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K67" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L67" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M67" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N67" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O67" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P67" t="n">
         <v>360.0</v>
@@ -18632,37 +18836,40 @@
       <c r="BX67" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY67" t="n">
+      <c r="BY67" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ67" t="n">
         <v>6.279883333333333</v>
       </c>
-      <c r="BZ67" t="n">
+      <c r="CA67" t="n">
         <v>19.0</v>
       </c>
-      <c r="CA67" t="s">
-        <v>602</v>
-      </c>
       <c r="CB67" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC67" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD67" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE67" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE67" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF67" t="n">
         <v>6.416666666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" t="n">
         <v>69.0</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
@@ -18671,34 +18878,34 @@
         <v>1.0</v>
       </c>
       <c r="F68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I68" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J68" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K68" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L68" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M68" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N68" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O68" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P68" t="n">
         <v>300.0</v>
@@ -18883,37 +19090,40 @@
       <c r="BX68" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY68" t="n">
+      <c r="BY68" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ68" t="n">
         <v>8.359785299995231</v>
       </c>
-      <c r="BZ68" t="n">
+      <c r="CA68" t="n">
         <v>23.0</v>
       </c>
-      <c r="CA68" t="s">
-        <v>602</v>
-      </c>
       <c r="CB68" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC68" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD68" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE68" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE68" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF68" t="n">
         <v>8.516666666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B69" t="n">
         <v>70.0</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D69" t="n">
         <v>1.0</v>
@@ -18922,34 +19132,34 @@
         <v>1.0</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G69" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I69" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J69" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K69" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L69" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M69" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N69" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O69" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P69" t="n">
         <v>300.0</v>
@@ -19134,37 +19344,40 @@
       <c r="BX69" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY69" t="n">
+      <c r="BY69" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ69" t="n">
         <v>4.118213533348035</v>
       </c>
-      <c r="BZ69" t="n">
+      <c r="CA69" t="n">
         <v>22.0</v>
       </c>
-      <c r="CA69" t="s">
-        <v>602</v>
-      </c>
       <c r="CB69" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="CC69" t="s">
         <v>608</v>
       </c>
       <c r="CD69" t="s">
-        <v>614</v>
-      </c>
-      <c r="CE69" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE69" t="s">
+        <v>616</v>
+      </c>
+      <c r="CF69" t="n">
         <v>4.283333333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B70" t="n">
         <v>71.0</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
@@ -19173,34 +19386,34 @@
         <v>1.0</v>
       </c>
       <c r="F70" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K70" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L70" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M70" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N70" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O70" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P70" t="n">
         <v>300.0</v>
@@ -19377,37 +19590,40 @@
       <c r="BX70" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY70" t="n">
+      <c r="BY70" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ70" t="n">
         <v>7.898471983333766</v>
       </c>
-      <c r="BZ70" t="n">
+      <c r="CA70" t="n">
         <v>36.0</v>
       </c>
-      <c r="CA70" t="s">
-        <v>602</v>
-      </c>
       <c r="CB70" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC70" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD70" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE70" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE70" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF70" t="n">
         <v>8.983333333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B71" t="n">
         <v>72.0</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
@@ -19416,34 +19632,34 @@
         <v>1.0</v>
       </c>
       <c r="F71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G71" t="s">
+        <v>391</v>
+      </c>
+      <c r="H71" t="s">
         <v>390</v>
       </c>
-      <c r="H71" t="s">
-        <v>389</v>
-      </c>
       <c r="I71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J71" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K71" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L71" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M71" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N71" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O71" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P71" t="n">
         <v>300.0</v>
@@ -19628,37 +19844,40 @@
       <c r="BX71" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY71" t="n">
+      <c r="BY71" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ71" t="n">
         <v>10.033653499989272</v>
       </c>
-      <c r="BZ71" t="n">
+      <c r="CA71" t="n">
         <v>30.0</v>
       </c>
-      <c r="CA71" t="s">
-        <v>602</v>
-      </c>
       <c r="CB71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC71" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD71" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE71" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE71" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF71" t="n">
         <v>10.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B72" t="n">
         <v>73.0</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D72" t="n">
         <v>1.0</v>
@@ -19667,34 +19886,34 @@
         <v>1.0</v>
       </c>
       <c r="F72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G72" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H72" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I72" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J72" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K72" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L72" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M72" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N72" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O72" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P72" t="n">
         <v>300.0</v>
@@ -19879,37 +20098,40 @@
       <c r="BX72" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY72" t="n">
+      <c r="BY72" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ72" t="n">
         <v>5.610869666666667</v>
       </c>
-      <c r="BZ72" t="n">
+      <c r="CA72" t="n">
         <v>38.0</v>
-      </c>
-      <c r="CA72" t="s">
-        <v>601</v>
       </c>
       <c r="CB72" t="s">
         <v>603</v>
       </c>
       <c r="CC72" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD72" t="s">
-        <v>607</v>
-      </c>
-      <c r="CE72" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE72" t="s">
+        <v>609</v>
+      </c>
+      <c r="CF72" t="n">
         <v>5.866666666666666</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B73" t="n">
         <v>74.0</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
@@ -19918,34 +20140,34 @@
         <v>1.0</v>
       </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G73" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H73" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K73" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L73" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M73" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N73" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O73" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P73" t="n">
         <v>360.0</v>
@@ -20126,37 +20348,40 @@
       <c r="BX73" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY73" t="n">
+      <c r="BY73" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ73" t="n">
         <v>24.30656690000004</v>
       </c>
-      <c r="BZ73" t="n">
+      <c r="CA73" t="n">
         <v>28.0</v>
-      </c>
-      <c r="CA73" t="s">
-        <v>601</v>
       </c>
       <c r="CB73" t="s">
         <v>603</v>
       </c>
       <c r="CC73" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD73" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE73" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE73" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF73" t="n">
         <v>24.966666666666665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B74" t="n">
         <v>75.0</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
@@ -20165,34 +20390,34 @@
         <v>1.0</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K74" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L74" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M74" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N74" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O74" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P74" t="n">
         <v>360.0</v>
@@ -20367,37 +20592,40 @@
       <c r="BX74" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY74" t="n">
+      <c r="BY74" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ74" t="n">
         <v>9.786687683334822</v>
       </c>
-      <c r="BZ74" t="n">
+      <c r="CA74" t="n">
         <v>40.0</v>
       </c>
-      <c r="CA74" t="s">
-        <v>602</v>
-      </c>
       <c r="CB74" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC74" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD74" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE74" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE74" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF74" t="n">
         <v>10.066666666666666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B75" t="n">
         <v>76.0</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D75" t="n">
         <v>1.0</v>
@@ -20406,34 +20634,34 @@
         <v>1.0</v>
       </c>
       <c r="F75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H75" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I75" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J75" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K75" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L75" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M75" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N75" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O75" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P75" t="n">
         <v>360.0</v>
@@ -20618,37 +20846,40 @@
       <c r="BX75" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY75" t="n">
+      <c r="BY75" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ75" t="n">
         <v>10.229977883330454</v>
       </c>
-      <c r="BZ75" t="n">
+      <c r="CA75" t="n">
         <v>24.0</v>
       </c>
-      <c r="CA75" t="s">
-        <v>601</v>
-      </c>
       <c r="CB75" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="CC75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD75" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE75" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE75" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF75" t="n">
         <v>10.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76" t="n">
         <v>77.0</v>
       </c>
       <c r="C76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
@@ -20657,34 +20888,34 @@
         <v>1.0</v>
       </c>
       <c r="F76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G76" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H76" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J76" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K76" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L76" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M76" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N76" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O76" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P76" t="n">
         <v>300.0</v>
@@ -20869,37 +21100,40 @@
       <c r="BX76" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY76" t="n">
+      <c r="BY76" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ76" t="n">
         <v>5.7971352499825155</v>
       </c>
-      <c r="BZ76" t="n">
+      <c r="CA76" t="n">
         <v>31.0</v>
       </c>
-      <c r="CA76" t="s">
-        <v>602</v>
-      </c>
       <c r="CB76" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC76" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD76" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE76" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE76" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF76" t="n">
         <v>6.083333333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B77" t="n">
         <v>78.0</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
@@ -20908,34 +21142,34 @@
         <v>1.0</v>
       </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H77" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I77" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J77" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K77" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L77" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M77" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N77" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O77" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P77" t="n">
         <v>300.0</v>
@@ -21120,37 +21354,40 @@
       <c r="BX77" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY77" t="n">
+      <c r="BY77" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ77" t="n">
         <v>8.807450000000001</v>
       </c>
-      <c r="BZ77" t="n">
+      <c r="CA77" t="n">
         <v>65.0</v>
       </c>
-      <c r="CA77" t="s">
-        <v>602</v>
-      </c>
       <c r="CB77" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC77" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD77" t="s">
-        <v>611</v>
-      </c>
-      <c r="CE77" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE77" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF77" t="n">
         <v>9.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B78" t="n">
         <v>79.0</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
@@ -21159,34 +21396,34 @@
         <v>1.0</v>
       </c>
       <c r="F78" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G78" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H78" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I78" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J78" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K78" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L78" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M78" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N78" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O78" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P78" t="n">
         <v>360.0</v>
@@ -21371,37 +21608,40 @@
       <c r="BX78" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY78" t="n">
+      <c r="BY78" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ78" t="n">
         <v>7.461328666666666</v>
       </c>
-      <c r="BZ78" t="n">
+      <c r="CA78" t="n">
         <v>36.0</v>
       </c>
-      <c r="CA78" t="s">
-        <v>601</v>
-      </c>
       <c r="CB78" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="CC78" t="s">
         <v>608</v>
       </c>
       <c r="CD78" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE78" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE78" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF78" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B79" t="n">
         <v>80.0</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
@@ -21410,34 +21650,34 @@
         <v>1.0</v>
       </c>
       <c r="F79" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G79" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I79" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J79" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K79" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L79" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M79" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N79" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O79" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P79" t="n">
         <v>360.0</v>
@@ -21622,37 +21862,40 @@
       <c r="BX79" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY79" t="n">
+      <c r="BY79" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ79" t="n">
         <v>24.380048333333335</v>
       </c>
-      <c r="BZ79" t="n">
+      <c r="CA79" t="n">
         <v>43.0</v>
-      </c>
-      <c r="CA79" t="s">
-        <v>601</v>
       </c>
       <c r="CB79" t="s">
         <v>603</v>
       </c>
       <c r="CC79" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD79" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE79" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE79" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF79" t="n">
         <v>24.65</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B80" t="n">
         <v>81.0</v>
       </c>
       <c r="C80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D80" t="n">
         <v>1.0</v>
@@ -21661,34 +21904,34 @@
         <v>1.0</v>
       </c>
       <c r="F80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G80" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H80" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K80" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L80" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O80" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P80" t="n">
         <v>300.0</v>
@@ -21873,37 +22116,40 @@
       <c r="BX80" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY80" t="n">
+      <c r="BY80" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ80" t="n">
         <v>5.048819800006756</v>
       </c>
-      <c r="BZ80" t="n">
+      <c r="CA80" t="n">
         <v>46.0</v>
       </c>
-      <c r="CA80" t="s">
-        <v>602</v>
-      </c>
       <c r="CB80" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC80" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD80" t="s">
-        <v>614</v>
-      </c>
-      <c r="CE80" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE80" t="s">
+        <v>616</v>
+      </c>
+      <c r="CF80" t="n">
         <v>5.966666666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>82.0</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D81" t="n">
         <v>1.0</v>
@@ -21912,34 +22158,34 @@
         <v>1.0</v>
       </c>
       <c r="F81" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G81" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H81" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I81" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J81" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L81" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M81" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N81" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O81" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P81" t="n">
         <v>300.0</v>
@@ -22124,37 +22370,40 @@
       <c r="BX81" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY81" t="n">
+      <c r="BY81" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ81" t="n">
         <v>4.733463383334376</v>
       </c>
-      <c r="BZ81" t="n">
+      <c r="CA81" t="n">
         <v>62.0</v>
-      </c>
-      <c r="CA81" t="s">
-        <v>601</v>
       </c>
       <c r="CB81" t="s">
         <v>603</v>
       </c>
       <c r="CC81" t="s">
-        <v>327</v>
+        <v>605</v>
       </c>
       <c r="CD81" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE81" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE81" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF81" t="n">
         <v>6.516666666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B82" t="n">
         <v>83.0</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D82" t="n">
         <v>1.0</v>
@@ -22163,34 +22412,34 @@
         <v>1.0</v>
       </c>
       <c r="F82" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H82" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K82" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L82" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M82" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N82" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O82" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P82" t="n">
         <v>360.0</v>
@@ -22371,37 +22620,40 @@
       <c r="BX82" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY82" t="n">
+      <c r="BY82" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ82" t="n">
         <v>4.509228366667759</v>
       </c>
-      <c r="BZ82" t="n">
+      <c r="CA82" t="n">
         <v>49.0</v>
-      </c>
-      <c r="CA82" t="s">
-        <v>601</v>
       </c>
       <c r="CB82" t="s">
         <v>603</v>
       </c>
       <c r="CC82" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD82" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE82" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE82" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF82" t="n">
         <v>4.733333333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B83" t="n">
         <v>84.0</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D83" t="n">
         <v>1.0</v>
@@ -22410,34 +22662,34 @@
         <v>1.0</v>
       </c>
       <c r="F83" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G83" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K83" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L83" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M83" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N83" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O83" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P83" t="n">
         <v>300.0</v>
@@ -22618,37 +22870,40 @@
       <c r="BX83" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY83" t="n">
+      <c r="BY83" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ83" t="n">
         <v>9.453088383332364</v>
       </c>
-      <c r="BZ83" t="n">
+      <c r="CA83" t="n">
         <v>37.0</v>
       </c>
-      <c r="CA83" t="s">
-        <v>602</v>
-      </c>
       <c r="CB83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC83" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CD83" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE83" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE83" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF83" t="n">
         <v>9.966666666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B84" t="n">
         <v>85.0</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
@@ -22657,34 +22912,34 @@
         <v>1.0</v>
       </c>
       <c r="F84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G84" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L84" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M84" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N84" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O84" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P84" t="n">
         <v>300.0</v>
@@ -22863,37 +23118,40 @@
       <c r="BX84" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY84" t="n">
+      <c r="BY84" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ84" t="n">
         <v>6.378428849998609</v>
       </c>
-      <c r="BZ84" t="n">
+      <c r="CA84" t="n">
         <v>35.0</v>
       </c>
-      <c r="CA84" t="s">
-        <v>602</v>
-      </c>
       <c r="CB84" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC84" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD84" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE84" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE84" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF84" t="n">
         <v>6.633333333333334</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B85" t="n">
         <v>86.0</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
@@ -22902,34 +23160,34 @@
         <v>1.0</v>
       </c>
       <c r="F85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J85" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K85" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L85" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M85" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N85" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O85" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P85" t="n">
         <v>300.0</v>
@@ -23114,37 +23372,40 @@
       <c r="BX85" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY85" t="n">
+      <c r="BY85" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ85" t="n">
         <v>5.951194666666666</v>
       </c>
-      <c r="BZ85" t="n">
+      <c r="CA85" t="n">
         <v>29.0</v>
-      </c>
-      <c r="CA85" t="s">
-        <v>601</v>
       </c>
       <c r="CB85" t="s">
         <v>603</v>
       </c>
       <c r="CC85" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD85" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE85" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE85" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF85" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B86" t="n">
         <v>87.0</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D86" t="n">
         <v>1.0</v>
@@ -23153,34 +23414,34 @@
         <v>1.0</v>
       </c>
       <c r="F86" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G86" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H86" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K86" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L86" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M86" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N86" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O86" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P86" t="n">
         <v>300.0</v>
@@ -23365,37 +23626,40 @@
       <c r="BX86" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY86" t="n">
+      <c r="BY86" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ86" t="n">
         <v>7.388376150005166</v>
       </c>
-      <c r="BZ86" t="n">
+      <c r="CA86" t="n">
         <v>21.0</v>
       </c>
-      <c r="CA86" t="s">
-        <v>602</v>
-      </c>
       <c r="CB86" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC86" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD86" t="s">
         <v>611</v>
       </c>
-      <c r="CE86" t="n">
+      <c r="CE86" t="s">
+        <v>613</v>
+      </c>
+      <c r="CF86" t="n">
         <v>7.566666666666666</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B87" t="n">
         <v>88.0</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D87" t="n">
         <v>1.0</v>
@@ -23404,34 +23668,34 @@
         <v>1.0</v>
       </c>
       <c r="F87" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G87" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I87" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J87" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K87" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L87" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M87" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N87" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O87" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P87" t="n">
         <v>300.0</v>
@@ -23616,37 +23880,40 @@
       <c r="BX87" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY87" t="n">
+      <c r="BY87" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ87" t="n">
         <v>10.238689783333276</v>
       </c>
-      <c r="BZ87" t="n">
+      <c r="CA87" t="n">
         <v>72.0</v>
       </c>
-      <c r="CA87" t="s">
-        <v>602</v>
-      </c>
       <c r="CB87" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC87" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD87" t="s">
         <v>610</v>
       </c>
-      <c r="CE87" t="n">
+      <c r="CE87" t="s">
+        <v>612</v>
+      </c>
+      <c r="CF87" t="n">
         <v>10.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B88" t="n">
         <v>89.0</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D88" t="n">
         <v>1.0</v>
@@ -23655,34 +23922,34 @@
         <v>1.0</v>
       </c>
       <c r="F88" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G88" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H88" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K88" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L88" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M88" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N88" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O88" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P88" t="n">
         <v>300.0</v>
@@ -23863,37 +24130,40 @@
       <c r="BX88" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY88" t="n">
+      <c r="BY88" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ88" t="n">
         <v>6.351841666666667</v>
       </c>
-      <c r="BZ88" t="n">
+      <c r="CA88" t="n">
         <v>34.0</v>
       </c>
-      <c r="CA88" t="s">
-        <v>601</v>
-      </c>
       <c r="CB88" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="CC88" t="s">
         <v>608</v>
       </c>
       <c r="CD88" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE88" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE88" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF88" t="n">
         <v>6.516666666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B89" t="n">
         <v>90.0</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D89" t="n">
         <v>1.0</v>
@@ -23902,34 +24172,34 @@
         <v>1.0</v>
       </c>
       <c r="F89" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H89" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I89" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K89" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L89" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M89" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N89" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O89" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P89" t="n">
         <v>480.0</v>
@@ -24114,37 +24384,40 @@
       <c r="BX89" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY89" t="n">
+      <c r="BY89" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ89" t="n">
         <v>13.107596949998412</v>
       </c>
-      <c r="BZ89" t="n">
+      <c r="CA89" t="n">
         <v>48.0</v>
       </c>
-      <c r="CA89" t="s">
-        <v>602</v>
-      </c>
       <c r="CB89" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC89" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD89" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE89" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE89" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF89" t="n">
         <v>13.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B90" t="n">
         <v>91.0</v>
       </c>
       <c r="C90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D90" t="n">
         <v>1.0</v>
@@ -24153,34 +24426,34 @@
         <v>1.0</v>
       </c>
       <c r="F90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G90" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H90" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I90" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K90" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L90" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M90" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N90" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O90" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P90" t="n">
         <v>360.0</v>
@@ -24365,37 +24638,40 @@
       <c r="BX90" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY90" t="n">
+      <c r="BY90" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ90" t="n">
         <v>8.531433333333332</v>
       </c>
-      <c r="BZ90" t="n">
+      <c r="CA90" t="n">
         <v>56.0</v>
       </c>
-      <c r="CA90" t="s">
-        <v>602</v>
-      </c>
       <c r="CB90" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC90" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="CD90" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE90" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE90" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF90" t="n">
         <v>10.65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B91" t="n">
         <v>92.0</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D91" t="n">
         <v>1.0</v>
@@ -24404,34 +24680,34 @@
         <v>1.0</v>
       </c>
       <c r="F91" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G91" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H91" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I91" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J91" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K91" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L91" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M91" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N91" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O91" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P91" t="n">
         <v>300.0</v>
@@ -24614,37 +24890,40 @@
       <c r="BX91" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY91" t="n">
+      <c r="BY91" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ91" t="n">
         <v>9.640029416666268</v>
       </c>
-      <c r="BZ91" t="n">
+      <c r="CA91" t="n">
         <v>71.0</v>
-      </c>
-      <c r="CA91" t="s">
-        <v>601</v>
       </c>
       <c r="CB91" t="s">
         <v>603</v>
       </c>
       <c r="CC91" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD91" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE91" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE91" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF91" t="n">
         <v>10.016666666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B92" t="n">
         <v>93.0</v>
       </c>
       <c r="C92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D92" t="n">
         <v>1.0</v>
@@ -24653,34 +24932,34 @@
         <v>1.0</v>
       </c>
       <c r="F92" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G92" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H92" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I92" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J92" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K92" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L92" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M92" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N92" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P92" t="n">
         <v>360.0</v>
@@ -24865,37 +25144,40 @@
       <c r="BX92" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY92" t="n">
+      <c r="BY92" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ92" t="n">
         <v>8.852889716666603</v>
       </c>
-      <c r="BZ92" t="n">
+      <c r="CA92" t="n">
         <v>49.0</v>
       </c>
-      <c r="CA92" t="s">
-        <v>602</v>
-      </c>
       <c r="CB92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC92" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="CD92" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE92" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE92" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF92" t="n">
         <v>9.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B93" t="n">
         <v>95.0</v>
       </c>
       <c r="C93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" t="n">
         <v>1.0</v>
@@ -24904,34 +25186,34 @@
         <v>1.0</v>
       </c>
       <c r="F93" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G93" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H93" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I93" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J93" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K93" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L93" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M93" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N93" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O93" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P93" t="n">
         <v>300.0</v>
@@ -25114,37 +25396,40 @@
       <c r="BX93" t="n">
         <v>2.0</v>
       </c>
-      <c r="BY93" t="n">
+      <c r="BY93" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ93" t="n">
         <v>3.895424333333333</v>
       </c>
-      <c r="BZ93" t="n">
+      <c r="CA93" t="n">
         <v>50.0</v>
-      </c>
-      <c r="CA93" t="s">
-        <v>601</v>
       </c>
       <c r="CB93" t="s">
         <v>603</v>
       </c>
       <c r="CC93" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD93" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE93" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE93" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF93" t="n">
         <v>4.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B94" t="n">
         <v>96.0</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" t="n">
         <v>1.0</v>
@@ -25153,34 +25438,34 @@
         <v>1.0</v>
       </c>
       <c r="F94" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H94" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I94" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J94" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K94" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L94" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M94" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N94" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O94" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P94" t="n">
         <v>480.0</v>
@@ -25365,37 +25650,40 @@
       <c r="BX94" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY94" t="n">
+      <c r="BY94" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ94" t="n">
         <v>18.04050166666667</v>
       </c>
-      <c r="BZ94" t="n">
+      <c r="CA94" t="n">
         <v>61.0</v>
       </c>
-      <c r="CA94" t="s">
-        <v>602</v>
-      </c>
       <c r="CB94" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="CC94" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD94" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE94" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE94" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF94" t="n">
         <v>18.366666666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B95" t="n">
         <v>97.0</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" t="n">
         <v>1.0</v>
@@ -25404,34 +25692,34 @@
         <v>1.0</v>
       </c>
       <c r="F95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K95" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L95" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M95" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N95" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O95" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P95" t="n">
         <v>360.0</v>
@@ -25606,37 +25894,40 @@
       <c r="BX95" t="n">
         <v>5.0</v>
       </c>
-      <c r="BY95" t="n">
+      <c r="BY95" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ95" t="n">
         <v>5.660791</v>
       </c>
-      <c r="BZ95" t="n">
+      <c r="CA95" t="n">
         <v>29.0</v>
-      </c>
-      <c r="CA95" t="s">
-        <v>601</v>
       </c>
       <c r="CB95" t="s">
         <v>603</v>
       </c>
       <c r="CC95" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD95" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE95" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE95" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF95" t="n">
         <v>5.833333333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B96" t="n">
         <v>98.0</v>
       </c>
       <c r="C96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" t="n">
         <v>1.0</v>
@@ -25645,34 +25936,34 @@
         <v>1.0</v>
       </c>
       <c r="F96" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G96" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H96" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J96" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K96" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L96" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M96" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N96" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O96" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P96" t="n">
         <v>300.0</v>
@@ -25857,37 +26148,40 @@
       <c r="BX96" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY96" t="n">
+      <c r="BY96" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ96" t="n">
         <v>3.9141990999993044</v>
       </c>
-      <c r="BZ96" t="n">
+      <c r="CA96" t="n">
         <v>62.0</v>
-      </c>
-      <c r="CA96" t="s">
-        <v>601</v>
       </c>
       <c r="CB96" t="s">
         <v>603</v>
       </c>
       <c r="CC96" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD96" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE96" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE96" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF96" t="n">
         <v>4.15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B97" t="n">
         <v>99.0</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" t="n">
         <v>1.0</v>
@@ -25896,34 +26190,34 @@
         <v>1.0</v>
       </c>
       <c r="F97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H97" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I97" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J97" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K97" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L97" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M97" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N97" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O97" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P97" t="n">
         <v>360.0</v>
@@ -26108,37 +26402,40 @@
       <c r="BX97" t="n">
         <v>3.0</v>
       </c>
-      <c r="BY97" t="n">
+      <c r="BY97" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ97" t="n">
         <v>11.483936100003575</v>
       </c>
-      <c r="BZ97" t="n">
+      <c r="CA97" t="n">
         <v>34.0</v>
-      </c>
-      <c r="CA97" t="s">
-        <v>601</v>
       </c>
       <c r="CB97" t="s">
         <v>603</v>
       </c>
       <c r="CC97" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD97" t="s">
-        <v>613</v>
-      </c>
-      <c r="CE97" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE97" t="s">
+        <v>615</v>
+      </c>
+      <c r="CF97" t="n">
         <v>11.666666666666666</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B98" t="n">
         <v>100.0</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" t="n">
         <v>1.0</v>
@@ -26147,34 +26444,34 @@
         <v>1.0</v>
       </c>
       <c r="F98" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H98" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I98" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J98" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K98" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L98" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M98" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N98" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O98" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P98" t="n">
         <v>480.0</v>
@@ -26359,37 +26656,40 @@
       <c r="BX98" t="n">
         <v>1.0</v>
       </c>
-      <c r="BY98" t="n">
+      <c r="BY98" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ98" t="n">
         <v>3.261764166665078</v>
       </c>
-      <c r="BZ98" t="n">
+      <c r="CA98" t="n">
         <v>34.0</v>
-      </c>
-      <c r="CA98" t="s">
-        <v>601</v>
       </c>
       <c r="CB98" t="s">
         <v>603</v>
       </c>
       <c r="CC98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="CD98" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE98" t="n">
+        <v>610</v>
+      </c>
+      <c r="CE98" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF98" t="n">
         <v>3.5166666666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B99" t="n">
         <v>101.0</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" t="n">
         <v>1.0</v>
@@ -26398,34 +26698,34 @@
         <v>1.0</v>
       </c>
       <c r="F99" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G99" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H99" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I99" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J99" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K99" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L99" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M99" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N99" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O99" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P99" t="n">
         <v>360.0</v>
@@ -26610,25 +26910,28 @@
       <c r="BX99" t="n">
         <v>4.0</v>
       </c>
-      <c r="BY99" t="n">
+      <c r="BY99" t="s">
+        <v>602</v>
+      </c>
+      <c r="BZ99" t="n">
         <v>11.412022</v>
       </c>
-      <c r="BZ99" t="n">
+      <c r="CA99" t="n">
         <v>49.0</v>
       </c>
-      <c r="CA99" t="s">
-        <v>602</v>
-      </c>
       <c r="CB99" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CC99" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="CD99" t="s">
-        <v>612</v>
-      </c>
-      <c r="CE99" t="n">
+        <v>611</v>
+      </c>
+      <c r="CE99" t="s">
+        <v>614</v>
+      </c>
+      <c r="CF99" t="n">
         <v>15.583333333333334</v>
       </c>
     </row>
